--- a/Week 21/EXPERIMENT-8.xlsx
+++ b/Week 21/EXPERIMENT-8.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lbeln\OneDrive\Documents\UF\Research\Week 21\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE65BAA-0725-4B16-8998-BC1D326AF7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="8048" windowHeight="10837" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -271,8 +277,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,12 +302,24 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -335,12 +353,16 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -348,13 +370,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -392,7 +422,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -426,6 +456,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -460,9 +491,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -635,14 +667,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="5" max="5" width="16.06640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.59765625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -662,47 +701,47 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0.7</v>
-      </c>
-      <c r="F2">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.775</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="F3">
         <v>0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -719,95 +758,95 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0.7916666666666666</v>
-      </c>
-      <c r="F5">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0.85</v>
+      </c>
+      <c r="F6">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
         <v>0.8125</v>
       </c>
-      <c r="F6">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0.85</v>
-      </c>
-      <c r="F7">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0.75</v>
-      </c>
-      <c r="F8">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="F7" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -819,431 +858,434 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0.8125</v>
+      </c>
+      <c r="F10">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F11">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="F12">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="F13">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="F14">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B17" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
         <v>0.71875</v>
       </c>
-      <c r="F10">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0.775</v>
-      </c>
-      <c r="F11">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0.925</v>
-      </c>
-      <c r="F12">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0.8125</v>
-      </c>
-      <c r="F13">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0.925</v>
-      </c>
-      <c r="F14">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0.875</v>
-      </c>
-      <c r="F15">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0.7708333333333334</v>
-      </c>
-      <c r="F16">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0.8125</v>
-      </c>
       <c r="F17">
         <v>0.7</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0.775</v>
-      </c>
-      <c r="F18">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0.65</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B22" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0.575</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0.65</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0.5535714285714286</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0.375</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B29" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0.2763157894736842</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0.5535714285714286</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0.5666666666666667</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0.5625</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0.575</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0.375</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0.575</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0.65</v>
+        <v>0.27631578947368418</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F30">
+    <sortCondition descending="1" ref="E2:E30"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C5" r:id="rId3"/>
-    <hyperlink ref="C6" r:id="rId4"/>
-    <hyperlink ref="C7" r:id="rId5"/>
-    <hyperlink ref="C8" r:id="rId6"/>
-    <hyperlink ref="C9" r:id="rId7"/>
-    <hyperlink ref="C10" r:id="rId8"/>
-    <hyperlink ref="C11" r:id="rId9"/>
-    <hyperlink ref="C12" r:id="rId10"/>
-    <hyperlink ref="C13" r:id="rId11"/>
-    <hyperlink ref="C14" r:id="rId12"/>
-    <hyperlink ref="C15" r:id="rId13"/>
-    <hyperlink ref="C16" r:id="rId14"/>
-    <hyperlink ref="C17" r:id="rId15"/>
-    <hyperlink ref="C18" r:id="rId16"/>
-    <hyperlink ref="C19" r:id="rId17"/>
-    <hyperlink ref="C20" r:id="rId18"/>
-    <hyperlink ref="C21" r:id="rId19"/>
-    <hyperlink ref="C22" r:id="rId20"/>
-    <hyperlink ref="C23" r:id="rId21"/>
-    <hyperlink ref="C24" r:id="rId22"/>
-    <hyperlink ref="C25" r:id="rId23"/>
-    <hyperlink ref="C26" r:id="rId24"/>
-    <hyperlink ref="C28" r:id="rId25"/>
-    <hyperlink ref="C29" r:id="rId26"/>
+    <hyperlink ref="C18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C12" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C11" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C16" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C17" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C2" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C9" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C3" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C5" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C10" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C14" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C22" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C29" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C27" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C25" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C26" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C23" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C24" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C20" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
